--- a/sequences/11_retrieval_2.xlsx
+++ b/sequences/11_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1944,6 +1944,30 @@
       <c r="F4" t="s">
         <v>207</v>
       </c>
+      <c r="G4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M4" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -2096,6 +2120,30 @@
       <c r="F8" t="s">
         <v>207</v>
       </c>
+      <c r="G8" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" t="s">
+        <v>207</v>
+      </c>
+      <c r="M8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N8" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
@@ -2116,6 +2164,30 @@
       <c r="F9" t="s">
         <v>207</v>
       </c>
+      <c r="G9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2136,6 +2208,30 @@
       <c r="F10" t="s">
         <v>207</v>
       </c>
+      <c r="G10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" t="s">
+        <v>207</v>
+      </c>
+      <c r="M10" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -2376,6 +2472,30 @@
       <c r="F16" t="s">
         <v>207</v>
       </c>
+      <c r="G16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" t="s">
+        <v>207</v>
+      </c>
+      <c r="L16" t="s">
+        <v>207</v>
+      </c>
+      <c r="M16" t="s">
+        <v>207</v>
+      </c>
+      <c r="N16" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2440,6 +2560,30 @@
       <c r="F18" t="s">
         <v>207</v>
       </c>
+      <c r="G18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" t="s">
+        <v>207</v>
+      </c>
+      <c r="I18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" t="s">
+        <v>207</v>
+      </c>
+      <c r="K18" t="s">
+        <v>207</v>
+      </c>
+      <c r="L18" t="s">
+        <v>207</v>
+      </c>
+      <c r="M18" t="s">
+        <v>207</v>
+      </c>
+      <c r="N18" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2724,6 +2868,30 @@
       <c r="F25" t="s">
         <v>207</v>
       </c>
+      <c r="G25" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="s">
+        <v>207</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
@@ -2788,6 +2956,30 @@
       <c r="F27" t="s">
         <v>207</v>
       </c>
+      <c r="G27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" t="s">
+        <v>207</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="s">
+        <v>207</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2808,6 +3000,30 @@
       <c r="F28" t="s">
         <v>207</v>
       </c>
+      <c r="G28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>207</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" t="s">
+        <v>207</v>
+      </c>
+      <c r="N28" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
@@ -2872,6 +3088,30 @@
       <c r="F30" t="s">
         <v>207</v>
       </c>
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" t="s">
+        <v>207</v>
+      </c>
+      <c r="J30" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" t="s">
+        <v>207</v>
+      </c>
+      <c r="N30" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -3156,6 +3396,30 @@
       <c r="F37" t="s">
         <v>207</v>
       </c>
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K37" t="s">
+        <v>207</v>
+      </c>
+      <c r="L37" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" t="s">
+        <v>207</v>
+      </c>
+      <c r="N37" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3220,6 +3484,30 @@
       <c r="F39" t="s">
         <v>207</v>
       </c>
+      <c r="G39" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39" t="s">
+        <v>207</v>
+      </c>
+      <c r="I39" t="s">
+        <v>207</v>
+      </c>
+      <c r="J39" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" t="s">
+        <v>207</v>
+      </c>
+      <c r="L39" t="s">
+        <v>207</v>
+      </c>
+      <c r="M39" t="s">
+        <v>207</v>
+      </c>
+      <c r="N39" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3460,6 +3748,30 @@
       <c r="F45" t="s">
         <v>207</v>
       </c>
+      <c r="G45" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" t="s">
+        <v>207</v>
+      </c>
+      <c r="J45" t="s">
+        <v>207</v>
+      </c>
+      <c r="K45" t="s">
+        <v>207</v>
+      </c>
+      <c r="L45" t="s">
+        <v>207</v>
+      </c>
+      <c r="M45" t="s">
+        <v>207</v>
+      </c>
+      <c r="N45" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
@@ -3612,6 +3924,30 @@
       <c r="F49" t="s">
         <v>207</v>
       </c>
+      <c r="G49" t="s">
+        <v>207</v>
+      </c>
+      <c r="H49" t="s">
+        <v>207</v>
+      </c>
+      <c r="I49" t="s">
+        <v>207</v>
+      </c>
+      <c r="J49" t="s">
+        <v>207</v>
+      </c>
+      <c r="K49" t="s">
+        <v>207</v>
+      </c>
+      <c r="L49" t="s">
+        <v>207</v>
+      </c>
+      <c r="M49" t="s">
+        <v>207</v>
+      </c>
+      <c r="N49" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3676,6 +4012,30 @@
       <c r="F51" t="s">
         <v>207</v>
       </c>
+      <c r="G51" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" t="s">
+        <v>207</v>
+      </c>
+      <c r="I51" t="s">
+        <v>207</v>
+      </c>
+      <c r="J51" t="s">
+        <v>207</v>
+      </c>
+      <c r="K51" t="s">
+        <v>207</v>
+      </c>
+      <c r="L51" t="s">
+        <v>207</v>
+      </c>
+      <c r="M51" t="s">
+        <v>207</v>
+      </c>
+      <c r="N51" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
@@ -3828,6 +4188,30 @@
       <c r="F55" t="s">
         <v>207</v>
       </c>
+      <c r="G55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H55" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" t="s">
+        <v>207</v>
+      </c>
+      <c r="J55" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" t="s">
+        <v>207</v>
+      </c>
+      <c r="L55" t="s">
+        <v>207</v>
+      </c>
+      <c r="M55" t="s">
+        <v>207</v>
+      </c>
+      <c r="N55" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
@@ -3980,6 +4364,30 @@
       <c r="F59" t="s">
         <v>207</v>
       </c>
+      <c r="G59" t="s">
+        <v>207</v>
+      </c>
+      <c r="H59" t="s">
+        <v>207</v>
+      </c>
+      <c r="I59" t="s">
+        <v>207</v>
+      </c>
+      <c r="J59" t="s">
+        <v>207</v>
+      </c>
+      <c r="K59" t="s">
+        <v>207</v>
+      </c>
+      <c r="L59" t="s">
+        <v>207</v>
+      </c>
+      <c r="M59" t="s">
+        <v>207</v>
+      </c>
+      <c r="N59" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -4044,6 +4452,30 @@
       <c r="F61" t="s">
         <v>207</v>
       </c>
+      <c r="G61" t="s">
+        <v>207</v>
+      </c>
+      <c r="H61" t="s">
+        <v>207</v>
+      </c>
+      <c r="I61" t="s">
+        <v>207</v>
+      </c>
+      <c r="J61" t="s">
+        <v>207</v>
+      </c>
+      <c r="K61" t="s">
+        <v>207</v>
+      </c>
+      <c r="L61" t="s">
+        <v>207</v>
+      </c>
+      <c r="M61" t="s">
+        <v>207</v>
+      </c>
+      <c r="N61" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
@@ -4328,6 +4760,30 @@
       <c r="F68" t="s">
         <v>207</v>
       </c>
+      <c r="G68" t="s">
+        <v>207</v>
+      </c>
+      <c r="H68" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" t="s">
+        <v>207</v>
+      </c>
+      <c r="J68" t="s">
+        <v>207</v>
+      </c>
+      <c r="K68" t="s">
+        <v>207</v>
+      </c>
+      <c r="L68" t="s">
+        <v>207</v>
+      </c>
+      <c r="M68" t="s">
+        <v>207</v>
+      </c>
+      <c r="N68" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
@@ -4480,6 +4936,30 @@
       <c r="F72" t="s">
         <v>207</v>
       </c>
+      <c r="G72" t="s">
+        <v>207</v>
+      </c>
+      <c r="H72" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" t="s">
+        <v>207</v>
+      </c>
+      <c r="J72" t="s">
+        <v>207</v>
+      </c>
+      <c r="K72" t="s">
+        <v>207</v>
+      </c>
+      <c r="L72" t="s">
+        <v>207</v>
+      </c>
+      <c r="M72" t="s">
+        <v>207</v>
+      </c>
+      <c r="N72" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4676,6 +5156,30 @@
       <c r="F77" t="s">
         <v>207</v>
       </c>
+      <c r="G77" t="s">
+        <v>207</v>
+      </c>
+      <c r="H77" t="s">
+        <v>207</v>
+      </c>
+      <c r="I77" t="s">
+        <v>207</v>
+      </c>
+      <c r="J77" t="s">
+        <v>207</v>
+      </c>
+      <c r="K77" t="s">
+        <v>207</v>
+      </c>
+      <c r="L77" t="s">
+        <v>207</v>
+      </c>
+      <c r="M77" t="s">
+        <v>207</v>
+      </c>
+      <c r="N77" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
@@ -4916,6 +5420,30 @@
       <c r="F83" t="s">
         <v>207</v>
       </c>
+      <c r="G83" t="s">
+        <v>207</v>
+      </c>
+      <c r="H83" t="s">
+        <v>207</v>
+      </c>
+      <c r="I83" t="s">
+        <v>207</v>
+      </c>
+      <c r="J83" t="s">
+        <v>207</v>
+      </c>
+      <c r="K83" t="s">
+        <v>207</v>
+      </c>
+      <c r="L83" t="s">
+        <v>207</v>
+      </c>
+      <c r="M83" t="s">
+        <v>207</v>
+      </c>
+      <c r="N83" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
@@ -4936,6 +5464,30 @@
       <c r="F84" t="s">
         <v>207</v>
       </c>
+      <c r="G84" t="s">
+        <v>207</v>
+      </c>
+      <c r="H84" t="s">
+        <v>207</v>
+      </c>
+      <c r="I84" t="s">
+        <v>207</v>
+      </c>
+      <c r="J84" t="s">
+        <v>207</v>
+      </c>
+      <c r="K84" t="s">
+        <v>207</v>
+      </c>
+      <c r="L84" t="s">
+        <v>207</v>
+      </c>
+      <c r="M84" t="s">
+        <v>207</v>
+      </c>
+      <c r="N84" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -5000,6 +5552,30 @@
       <c r="F86" t="s">
         <v>207</v>
       </c>
+      <c r="G86" t="s">
+        <v>207</v>
+      </c>
+      <c r="H86" t="s">
+        <v>207</v>
+      </c>
+      <c r="I86" t="s">
+        <v>207</v>
+      </c>
+      <c r="J86" t="s">
+        <v>207</v>
+      </c>
+      <c r="K86" t="s">
+        <v>207</v>
+      </c>
+      <c r="L86" t="s">
+        <v>207</v>
+      </c>
+      <c r="M86" t="s">
+        <v>207</v>
+      </c>
+      <c r="N86" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -5064,6 +5640,30 @@
       <c r="F88" t="s">
         <v>207</v>
       </c>
+      <c r="G88" t="s">
+        <v>207</v>
+      </c>
+      <c r="H88" t="s">
+        <v>207</v>
+      </c>
+      <c r="I88" t="s">
+        <v>207</v>
+      </c>
+      <c r="J88" t="s">
+        <v>207</v>
+      </c>
+      <c r="K88" t="s">
+        <v>207</v>
+      </c>
+      <c r="L88" t="s">
+        <v>207</v>
+      </c>
+      <c r="M88" t="s">
+        <v>207</v>
+      </c>
+      <c r="N88" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
@@ -5128,6 +5728,30 @@
       <c r="F90" t="s">
         <v>207</v>
       </c>
+      <c r="G90" t="s">
+        <v>207</v>
+      </c>
+      <c r="H90" t="s">
+        <v>207</v>
+      </c>
+      <c r="I90" t="s">
+        <v>207</v>
+      </c>
+      <c r="J90" t="s">
+        <v>207</v>
+      </c>
+      <c r="K90" t="s">
+        <v>207</v>
+      </c>
+      <c r="L90" t="s">
+        <v>207</v>
+      </c>
+      <c r="M90" t="s">
+        <v>207</v>
+      </c>
+      <c r="N90" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
@@ -5192,6 +5816,30 @@
       <c r="F92" t="s">
         <v>207</v>
       </c>
+      <c r="G92" t="s">
+        <v>207</v>
+      </c>
+      <c r="H92" t="s">
+        <v>207</v>
+      </c>
+      <c r="I92" t="s">
+        <v>207</v>
+      </c>
+      <c r="J92" t="s">
+        <v>207</v>
+      </c>
+      <c r="K92" t="s">
+        <v>207</v>
+      </c>
+      <c r="L92" t="s">
+        <v>207</v>
+      </c>
+      <c r="M92" t="s">
+        <v>207</v>
+      </c>
+      <c r="N92" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5256,6 +5904,30 @@
       <c r="F94" t="s">
         <v>207</v>
       </c>
+      <c r="G94" t="s">
+        <v>207</v>
+      </c>
+      <c r="H94" t="s">
+        <v>207</v>
+      </c>
+      <c r="I94" t="s">
+        <v>207</v>
+      </c>
+      <c r="J94" t="s">
+        <v>207</v>
+      </c>
+      <c r="K94" t="s">
+        <v>207</v>
+      </c>
+      <c r="L94" t="s">
+        <v>207</v>
+      </c>
+      <c r="M94" t="s">
+        <v>207</v>
+      </c>
+      <c r="N94" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5540,6 +6212,30 @@
       <c r="F101" t="s">
         <v>207</v>
       </c>
+      <c r="G101" t="s">
+        <v>207</v>
+      </c>
+      <c r="H101" t="s">
+        <v>207</v>
+      </c>
+      <c r="I101" t="s">
+        <v>207</v>
+      </c>
+      <c r="J101" t="s">
+        <v>207</v>
+      </c>
+      <c r="K101" t="s">
+        <v>207</v>
+      </c>
+      <c r="L101" t="s">
+        <v>207</v>
+      </c>
+      <c r="M101" t="s">
+        <v>207</v>
+      </c>
+      <c r="N101" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5604,6 +6300,30 @@
       <c r="F103" t="s">
         <v>207</v>
       </c>
+      <c r="G103" t="s">
+        <v>207</v>
+      </c>
+      <c r="H103" t="s">
+        <v>207</v>
+      </c>
+      <c r="I103" t="s">
+        <v>207</v>
+      </c>
+      <c r="J103" t="s">
+        <v>207</v>
+      </c>
+      <c r="K103" t="s">
+        <v>207</v>
+      </c>
+      <c r="L103" t="s">
+        <v>207</v>
+      </c>
+      <c r="M103" t="s">
+        <v>207</v>
+      </c>
+      <c r="N103" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
@@ -5756,6 +6476,30 @@
       <c r="F107" t="s">
         <v>207</v>
       </c>
+      <c r="G107" t="s">
+        <v>207</v>
+      </c>
+      <c r="H107" t="s">
+        <v>207</v>
+      </c>
+      <c r="I107" t="s">
+        <v>207</v>
+      </c>
+      <c r="J107" t="s">
+        <v>207</v>
+      </c>
+      <c r="K107" t="s">
+        <v>207</v>
+      </c>
+      <c r="L107" t="s">
+        <v>207</v>
+      </c>
+      <c r="M107" t="s">
+        <v>207</v>
+      </c>
+      <c r="N107" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5776,6 +6520,30 @@
       <c r="F108" t="s">
         <v>207</v>
       </c>
+      <c r="G108" t="s">
+        <v>207</v>
+      </c>
+      <c r="H108" t="s">
+        <v>207</v>
+      </c>
+      <c r="I108" t="s">
+        <v>207</v>
+      </c>
+      <c r="J108" t="s">
+        <v>207</v>
+      </c>
+      <c r="K108" t="s">
+        <v>207</v>
+      </c>
+      <c r="L108" t="s">
+        <v>207</v>
+      </c>
+      <c r="M108" t="s">
+        <v>207</v>
+      </c>
+      <c r="N108" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5928,6 +6696,30 @@
       <c r="F112" t="s">
         <v>207</v>
       </c>
+      <c r="G112" t="s">
+        <v>207</v>
+      </c>
+      <c r="H112" t="s">
+        <v>207</v>
+      </c>
+      <c r="I112" t="s">
+        <v>207</v>
+      </c>
+      <c r="J112" t="s">
+        <v>207</v>
+      </c>
+      <c r="K112" t="s">
+        <v>207</v>
+      </c>
+      <c r="L112" t="s">
+        <v>207</v>
+      </c>
+      <c r="M112" t="s">
+        <v>207</v>
+      </c>
+      <c r="N112" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
@@ -6036,6 +6828,30 @@
       <c r="F115" t="s">
         <v>207</v>
       </c>
+      <c r="G115" t="s">
+        <v>207</v>
+      </c>
+      <c r="H115" t="s">
+        <v>207</v>
+      </c>
+      <c r="I115" t="s">
+        <v>207</v>
+      </c>
+      <c r="J115" t="s">
+        <v>207</v>
+      </c>
+      <c r="K115" t="s">
+        <v>207</v>
+      </c>
+      <c r="L115" t="s">
+        <v>207</v>
+      </c>
+      <c r="M115" t="s">
+        <v>207</v>
+      </c>
+      <c r="N115" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -6056,6 +6872,30 @@
       <c r="F116" t="s">
         <v>207</v>
       </c>
+      <c r="G116" t="s">
+        <v>207</v>
+      </c>
+      <c r="H116" t="s">
+        <v>207</v>
+      </c>
+      <c r="I116" t="s">
+        <v>207</v>
+      </c>
+      <c r="J116" t="s">
+        <v>207</v>
+      </c>
+      <c r="K116" t="s">
+        <v>207</v>
+      </c>
+      <c r="L116" t="s">
+        <v>207</v>
+      </c>
+      <c r="M116" t="s">
+        <v>207</v>
+      </c>
+      <c r="N116" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
@@ -6252,6 +7092,30 @@
       <c r="F121" t="s">
         <v>207</v>
       </c>
+      <c r="G121" t="s">
+        <v>207</v>
+      </c>
+      <c r="H121" t="s">
+        <v>207</v>
+      </c>
+      <c r="I121" t="s">
+        <v>207</v>
+      </c>
+      <c r="J121" t="s">
+        <v>207</v>
+      </c>
+      <c r="K121" t="s">
+        <v>207</v>
+      </c>
+      <c r="L121" t="s">
+        <v>207</v>
+      </c>
+      <c r="M121" t="s">
+        <v>207</v>
+      </c>
+      <c r="N121" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
@@ -6316,6 +7180,30 @@
       <c r="F123" t="s">
         <v>207</v>
       </c>
+      <c r="G123" t="s">
+        <v>207</v>
+      </c>
+      <c r="H123" t="s">
+        <v>207</v>
+      </c>
+      <c r="I123" t="s">
+        <v>207</v>
+      </c>
+      <c r="J123" t="s">
+        <v>207</v>
+      </c>
+      <c r="K123" t="s">
+        <v>207</v>
+      </c>
+      <c r="L123" t="s">
+        <v>207</v>
+      </c>
+      <c r="M123" t="s">
+        <v>207</v>
+      </c>
+      <c r="N123" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6468,6 +7356,30 @@
       <c r="F127" t="s">
         <v>207</v>
       </c>
+      <c r="G127" t="s">
+        <v>207</v>
+      </c>
+      <c r="H127" t="s">
+        <v>207</v>
+      </c>
+      <c r="I127" t="s">
+        <v>207</v>
+      </c>
+      <c r="J127" t="s">
+        <v>207</v>
+      </c>
+      <c r="K127" t="s">
+        <v>207</v>
+      </c>
+      <c r="L127" t="s">
+        <v>207</v>
+      </c>
+      <c r="M127" t="s">
+        <v>207</v>
+      </c>
+      <c r="N127" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6488,6 +7400,30 @@
       <c r="F128" t="s">
         <v>207</v>
       </c>
+      <c r="G128" t="s">
+        <v>207</v>
+      </c>
+      <c r="H128" t="s">
+        <v>207</v>
+      </c>
+      <c r="I128" t="s">
+        <v>207</v>
+      </c>
+      <c r="J128" t="s">
+        <v>207</v>
+      </c>
+      <c r="K128" t="s">
+        <v>207</v>
+      </c>
+      <c r="L128" t="s">
+        <v>207</v>
+      </c>
+      <c r="M128" t="s">
+        <v>207</v>
+      </c>
+      <c r="N128" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
@@ -6772,6 +7708,30 @@
       <c r="F135" t="s">
         <v>207</v>
       </c>
+      <c r="G135" t="s">
+        <v>207</v>
+      </c>
+      <c r="H135" t="s">
+        <v>207</v>
+      </c>
+      <c r="I135" t="s">
+        <v>207</v>
+      </c>
+      <c r="J135" t="s">
+        <v>207</v>
+      </c>
+      <c r="K135" t="s">
+        <v>207</v>
+      </c>
+      <c r="L135" t="s">
+        <v>207</v>
+      </c>
+      <c r="M135" t="s">
+        <v>207</v>
+      </c>
+      <c r="N135" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6880,6 +7840,30 @@
       <c r="F138" t="s">
         <v>207</v>
       </c>
+      <c r="G138" t="s">
+        <v>207</v>
+      </c>
+      <c r="H138" t="s">
+        <v>207</v>
+      </c>
+      <c r="I138" t="s">
+        <v>207</v>
+      </c>
+      <c r="J138" t="s">
+        <v>207</v>
+      </c>
+      <c r="K138" t="s">
+        <v>207</v>
+      </c>
+      <c r="L138" t="s">
+        <v>207</v>
+      </c>
+      <c r="M138" t="s">
+        <v>207</v>
+      </c>
+      <c r="N138" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -7120,6 +8104,30 @@
       <c r="F144" t="s">
         <v>207</v>
       </c>
+      <c r="G144" t="s">
+        <v>207</v>
+      </c>
+      <c r="H144" t="s">
+        <v>207</v>
+      </c>
+      <c r="I144" t="s">
+        <v>207</v>
+      </c>
+      <c r="J144" t="s">
+        <v>207</v>
+      </c>
+      <c r="K144" t="s">
+        <v>207</v>
+      </c>
+      <c r="L144" t="s">
+        <v>207</v>
+      </c>
+      <c r="M144" t="s">
+        <v>207</v>
+      </c>
+      <c r="N144" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7184,6 +8192,30 @@
       <c r="F146" t="s">
         <v>207</v>
       </c>
+      <c r="G146" t="s">
+        <v>207</v>
+      </c>
+      <c r="H146" t="s">
+        <v>207</v>
+      </c>
+      <c r="I146" t="s">
+        <v>207</v>
+      </c>
+      <c r="J146" t="s">
+        <v>207</v>
+      </c>
+      <c r="K146" t="s">
+        <v>207</v>
+      </c>
+      <c r="L146" t="s">
+        <v>207</v>
+      </c>
+      <c r="M146" t="s">
+        <v>207</v>
+      </c>
+      <c r="N146" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -7336,6 +8368,30 @@
       <c r="F150" t="s">
         <v>207</v>
       </c>
+      <c r="G150" t="s">
+        <v>207</v>
+      </c>
+      <c r="H150" t="s">
+        <v>207</v>
+      </c>
+      <c r="I150" t="s">
+        <v>207</v>
+      </c>
+      <c r="J150" t="s">
+        <v>207</v>
+      </c>
+      <c r="K150" t="s">
+        <v>207</v>
+      </c>
+      <c r="L150" t="s">
+        <v>207</v>
+      </c>
+      <c r="M150" t="s">
+        <v>207</v>
+      </c>
+      <c r="N150" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
@@ -7400,6 +8456,30 @@
       <c r="F152" t="s">
         <v>207</v>
       </c>
+      <c r="G152" t="s">
+        <v>207</v>
+      </c>
+      <c r="H152" t="s">
+        <v>207</v>
+      </c>
+      <c r="I152" t="s">
+        <v>207</v>
+      </c>
+      <c r="J152" t="s">
+        <v>207</v>
+      </c>
+      <c r="K152" t="s">
+        <v>207</v>
+      </c>
+      <c r="L152" t="s">
+        <v>207</v>
+      </c>
+      <c r="M152" t="s">
+        <v>207</v>
+      </c>
+      <c r="N152" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
@@ -7552,6 +8632,30 @@
       <c r="F156" t="s">
         <v>207</v>
       </c>
+      <c r="G156" t="s">
+        <v>207</v>
+      </c>
+      <c r="H156" t="s">
+        <v>207</v>
+      </c>
+      <c r="I156" t="s">
+        <v>207</v>
+      </c>
+      <c r="J156" t="s">
+        <v>207</v>
+      </c>
+      <c r="K156" t="s">
+        <v>207</v>
+      </c>
+      <c r="L156" t="s">
+        <v>207</v>
+      </c>
+      <c r="M156" t="s">
+        <v>207</v>
+      </c>
+      <c r="N156" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7572,6 +8676,30 @@
       <c r="F157" t="s">
         <v>207</v>
       </c>
+      <c r="G157" t="s">
+        <v>207</v>
+      </c>
+      <c r="H157" t="s">
+        <v>207</v>
+      </c>
+      <c r="I157" t="s">
+        <v>207</v>
+      </c>
+      <c r="J157" t="s">
+        <v>207</v>
+      </c>
+      <c r="K157" t="s">
+        <v>207</v>
+      </c>
+      <c r="L157" t="s">
+        <v>207</v>
+      </c>
+      <c r="M157" t="s">
+        <v>207</v>
+      </c>
+      <c r="N157" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
@@ -7636,6 +8764,30 @@
       <c r="F159" t="s">
         <v>207</v>
       </c>
+      <c r="G159" t="s">
+        <v>207</v>
+      </c>
+      <c r="H159" t="s">
+        <v>207</v>
+      </c>
+      <c r="I159" t="s">
+        <v>207</v>
+      </c>
+      <c r="J159" t="s">
+        <v>207</v>
+      </c>
+      <c r="K159" t="s">
+        <v>207</v>
+      </c>
+      <c r="L159" t="s">
+        <v>207</v>
+      </c>
+      <c r="M159" t="s">
+        <v>207</v>
+      </c>
+      <c r="N159" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7656,6 +8808,30 @@
       <c r="F160" t="s">
         <v>207</v>
       </c>
+      <c r="G160" t="s">
+        <v>207</v>
+      </c>
+      <c r="H160" t="s">
+        <v>207</v>
+      </c>
+      <c r="I160" t="s">
+        <v>207</v>
+      </c>
+      <c r="J160" t="s">
+        <v>207</v>
+      </c>
+      <c r="K160" t="s">
+        <v>207</v>
+      </c>
+      <c r="L160" t="s">
+        <v>207</v>
+      </c>
+      <c r="M160" t="s">
+        <v>207</v>
+      </c>
+      <c r="N160" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7764,6 +8940,30 @@
       <c r="F163" t="s">
         <v>207</v>
       </c>
+      <c r="G163" t="s">
+        <v>207</v>
+      </c>
+      <c r="H163" t="s">
+        <v>207</v>
+      </c>
+      <c r="I163" t="s">
+        <v>207</v>
+      </c>
+      <c r="J163" t="s">
+        <v>207</v>
+      </c>
+      <c r="K163" t="s">
+        <v>207</v>
+      </c>
+      <c r="L163" t="s">
+        <v>207</v>
+      </c>
+      <c r="M163" t="s">
+        <v>207</v>
+      </c>
+      <c r="N163" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
@@ -7784,6 +8984,30 @@
       <c r="F164" t="s">
         <v>207</v>
       </c>
+      <c r="G164" t="s">
+        <v>207</v>
+      </c>
+      <c r="H164" t="s">
+        <v>207</v>
+      </c>
+      <c r="I164" t="s">
+        <v>207</v>
+      </c>
+      <c r="J164" t="s">
+        <v>207</v>
+      </c>
+      <c r="K164" t="s">
+        <v>207</v>
+      </c>
+      <c r="L164" t="s">
+        <v>207</v>
+      </c>
+      <c r="M164" t="s">
+        <v>207</v>
+      </c>
+      <c r="N164" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7804,6 +9028,30 @@
       <c r="F165" t="s">
         <v>207</v>
       </c>
+      <c r="G165" t="s">
+        <v>207</v>
+      </c>
+      <c r="H165" t="s">
+        <v>207</v>
+      </c>
+      <c r="I165" t="s">
+        <v>207</v>
+      </c>
+      <c r="J165" t="s">
+        <v>207</v>
+      </c>
+      <c r="K165" t="s">
+        <v>207</v>
+      </c>
+      <c r="L165" t="s">
+        <v>207</v>
+      </c>
+      <c r="M165" t="s">
+        <v>207</v>
+      </c>
+      <c r="N165" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7868,6 +9116,30 @@
       <c r="F167" t="s">
         <v>207</v>
       </c>
+      <c r="G167" t="s">
+        <v>207</v>
+      </c>
+      <c r="H167" t="s">
+        <v>207</v>
+      </c>
+      <c r="I167" t="s">
+        <v>207</v>
+      </c>
+      <c r="J167" t="s">
+        <v>207</v>
+      </c>
+      <c r="K167" t="s">
+        <v>207</v>
+      </c>
+      <c r="L167" t="s">
+        <v>207</v>
+      </c>
+      <c r="M167" t="s">
+        <v>207</v>
+      </c>
+      <c r="N167" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
@@ -8064,6 +9336,30 @@
       <c r="F172" t="s">
         <v>207</v>
       </c>
+      <c r="G172" t="s">
+        <v>207</v>
+      </c>
+      <c r="H172" t="s">
+        <v>207</v>
+      </c>
+      <c r="I172" t="s">
+        <v>207</v>
+      </c>
+      <c r="J172" t="s">
+        <v>207</v>
+      </c>
+      <c r="K172" t="s">
+        <v>207</v>
+      </c>
+      <c r="L172" t="s">
+        <v>207</v>
+      </c>
+      <c r="M172" t="s">
+        <v>207</v>
+      </c>
+      <c r="N172" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
@@ -8084,6 +9380,30 @@
       <c r="F173" t="s">
         <v>207</v>
       </c>
+      <c r="G173" t="s">
+        <v>207</v>
+      </c>
+      <c r="H173" t="s">
+        <v>207</v>
+      </c>
+      <c r="I173" t="s">
+        <v>207</v>
+      </c>
+      <c r="J173" t="s">
+        <v>207</v>
+      </c>
+      <c r="K173" t="s">
+        <v>207</v>
+      </c>
+      <c r="L173" t="s">
+        <v>207</v>
+      </c>
+      <c r="M173" t="s">
+        <v>207</v>
+      </c>
+      <c r="N173" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8148,6 +9468,30 @@
       <c r="F175" t="s">
         <v>207</v>
       </c>
+      <c r="G175" t="s">
+        <v>207</v>
+      </c>
+      <c r="H175" t="s">
+        <v>207</v>
+      </c>
+      <c r="I175" t="s">
+        <v>207</v>
+      </c>
+      <c r="J175" t="s">
+        <v>207</v>
+      </c>
+      <c r="K175" t="s">
+        <v>207</v>
+      </c>
+      <c r="L175" t="s">
+        <v>207</v>
+      </c>
+      <c r="M175" t="s">
+        <v>207</v>
+      </c>
+      <c r="N175" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
@@ -8212,6 +9556,30 @@
       <c r="F177" t="s">
         <v>207</v>
       </c>
+      <c r="G177" t="s">
+        <v>207</v>
+      </c>
+      <c r="H177" t="s">
+        <v>207</v>
+      </c>
+      <c r="I177" t="s">
+        <v>207</v>
+      </c>
+      <c r="J177" t="s">
+        <v>207</v>
+      </c>
+      <c r="K177" t="s">
+        <v>207</v>
+      </c>
+      <c r="L177" t="s">
+        <v>207</v>
+      </c>
+      <c r="M177" t="s">
+        <v>207</v>
+      </c>
+      <c r="N177" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8364,6 +9732,30 @@
       <c r="F181" t="s">
         <v>207</v>
       </c>
+      <c r="G181" t="s">
+        <v>207</v>
+      </c>
+      <c r="H181" t="s">
+        <v>207</v>
+      </c>
+      <c r="I181" t="s">
+        <v>207</v>
+      </c>
+      <c r="J181" t="s">
+        <v>207</v>
+      </c>
+      <c r="K181" t="s">
+        <v>207</v>
+      </c>
+      <c r="L181" t="s">
+        <v>207</v>
+      </c>
+      <c r="M181" t="s">
+        <v>207</v>
+      </c>
+      <c r="N181" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
@@ -8428,6 +9820,30 @@
       <c r="F183" t="s">
         <v>207</v>
       </c>
+      <c r="G183" t="s">
+        <v>207</v>
+      </c>
+      <c r="H183" t="s">
+        <v>207</v>
+      </c>
+      <c r="I183" t="s">
+        <v>207</v>
+      </c>
+      <c r="J183" t="s">
+        <v>207</v>
+      </c>
+      <c r="K183" t="s">
+        <v>207</v>
+      </c>
+      <c r="L183" t="s">
+        <v>207</v>
+      </c>
+      <c r="M183" t="s">
+        <v>207</v>
+      </c>
+      <c r="N183" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8448,6 +9864,30 @@
       <c r="F184" t="s">
         <v>207</v>
       </c>
+      <c r="G184" t="s">
+        <v>207</v>
+      </c>
+      <c r="H184" t="s">
+        <v>207</v>
+      </c>
+      <c r="I184" t="s">
+        <v>207</v>
+      </c>
+      <c r="J184" t="s">
+        <v>207</v>
+      </c>
+      <c r="K184" t="s">
+        <v>207</v>
+      </c>
+      <c r="L184" t="s">
+        <v>207</v>
+      </c>
+      <c r="M184" t="s">
+        <v>207</v>
+      </c>
+      <c r="N184" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8468,6 +9908,30 @@
       <c r="F185" t="s">
         <v>207</v>
       </c>
+      <c r="G185" t="s">
+        <v>207</v>
+      </c>
+      <c r="H185" t="s">
+        <v>207</v>
+      </c>
+      <c r="I185" t="s">
+        <v>207</v>
+      </c>
+      <c r="J185" t="s">
+        <v>207</v>
+      </c>
+      <c r="K185" t="s">
+        <v>207</v>
+      </c>
+      <c r="L185" t="s">
+        <v>207</v>
+      </c>
+      <c r="M185" t="s">
+        <v>207</v>
+      </c>
+      <c r="N185" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
@@ -8532,6 +9996,30 @@
       <c r="F187" t="s">
         <v>207</v>
       </c>
+      <c r="G187" t="s">
+        <v>207</v>
+      </c>
+      <c r="H187" t="s">
+        <v>207</v>
+      </c>
+      <c r="I187" t="s">
+        <v>207</v>
+      </c>
+      <c r="J187" t="s">
+        <v>207</v>
+      </c>
+      <c r="K187" t="s">
+        <v>207</v>
+      </c>
+      <c r="L187" t="s">
+        <v>207</v>
+      </c>
+      <c r="M187" t="s">
+        <v>207</v>
+      </c>
+      <c r="N187" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8684,6 +10172,30 @@
       <c r="F191" t="s">
         <v>207</v>
       </c>
+      <c r="G191" t="s">
+        <v>207</v>
+      </c>
+      <c r="H191" t="s">
+        <v>207</v>
+      </c>
+      <c r="I191" t="s">
+        <v>207</v>
+      </c>
+      <c r="J191" t="s">
+        <v>207</v>
+      </c>
+      <c r="K191" t="s">
+        <v>207</v>
+      </c>
+      <c r="L191" t="s">
+        <v>207</v>
+      </c>
+      <c r="M191" t="s">
+        <v>207</v>
+      </c>
+      <c r="N191" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>207</v>
+      </c>
+      <c r="G192" t="s">
+        <v>207</v>
+      </c>
+      <c r="H192" t="s">
+        <v>207</v>
+      </c>
+      <c r="I192" t="s">
+        <v>207</v>
+      </c>
+      <c r="J192" t="s">
+        <v>207</v>
+      </c>
+      <c r="K192" t="s">
+        <v>207</v>
+      </c>
+      <c r="L192" t="s">
+        <v>207</v>
+      </c>
+      <c r="M192" t="s">
+        <v>207</v>
+      </c>
+      <c r="N192" t="s">
         <v>207</v>
       </c>
     </row>

--- a/sequences/11_retrieval_2.xlsx
+++ b/sequences/11_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>fehlen</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>retten</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>opfern</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>klappen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>doppeln</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>hassen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>stimmen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>rechnen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>schaden</t>
+  </si>
+  <si>
+    <t>warten</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
     <t>bergen</t>
   </si>
   <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>kranken</t>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>messen</t>
+  </si>
+  <si>
+    <t>plaudern</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>foltern</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>lieben</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>fällen</t>
   </si>
   <si>
     <t>liefern</t>
   </si>
   <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>klingeln</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>sieben</t>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>danken</t>
+  </si>
+  <si>
+    <t>kosten</t>
   </si>
   <si>
     <t>narren</t>
   </si>
   <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>nähen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>widmen</t>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>atmen</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>mühen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>lesen</t>
   </si>
   <si>
     <t>trösten</t>
   </si>
   <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>wehtun</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>pfeifen</t>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
   </si>
   <si>
     <t>loben</t>
   </si>
   <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>zählen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>lösen</t>
-  </si>
-  <si>
-    <t>werfen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>sitzen</t>
-  </si>
-  <si>
-    <t>orten</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>leisten</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>zünden</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>beten</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>pinkeln</t>
-  </si>
-  <si>
-    <t>gnaden</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>feiern</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>schlagen</t>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>weigern</t>
   </si>
   <si>
     <t>backen</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>schwächen</t>
-  </si>
-  <si>
-    <t>lügen</t>
   </si>
   <si>
     <t>flower/flower004.jpg</t>
